--- a/CS 2420 - Summer 2014/src/assignment7/graphData.xlsx
+++ b/CS 2420 - Summer 2014/src/assignment7/graphData.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Desktop\analysis Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Java\school-java\CS 2420 - Summer 2014\src\assignment7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -42,6 +43,15 @@
   </si>
   <si>
     <t>BFS (Edges = 2*Vertices)</t>
+  </si>
+  <si>
+    <t>dijkstras</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>topo</t>
   </si>
 </sst>
 </file>
@@ -365,17 +375,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -389,7 +399,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -415,7 +425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>100</v>
       </c>
@@ -445,7 +455,7 @@
         <v>1866148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -475,7 +485,7 @@
         <v>5011634.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -505,7 +515,7 @@
         <v>9648295.1999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -535,7 +545,7 @@
         <v>14015213</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4000</v>
       </c>
@@ -565,7 +575,7 @@
         <v>18920229.600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -595,7 +605,7 @@
         <v>23619873.199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6000</v>
       </c>
@@ -625,7 +635,7 @@
         <v>28940717.600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7000</v>
       </c>
@@ -655,7 +665,7 @@
         <v>34076702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -685,7 +695,7 @@
         <v>38965289.600000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9000</v>
       </c>
@@ -715,7 +725,7 @@
         <v>44463734</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -753,4 +763,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>671501</v>
+      </c>
+      <c r="C3">
+        <v>67150.100000000006</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>45155</v>
+      </c>
+      <c r="G3">
+        <v>4515.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>84587</v>
+      </c>
+      <c r="C4">
+        <v>8458.7000000000007</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>47398</v>
+      </c>
+      <c r="G4">
+        <v>4739.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>43873</v>
+      </c>
+      <c r="C5">
+        <v>4387.3</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>14335</v>
+      </c>
+      <c r="G5">
+        <v>1433.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>121517</v>
+      </c>
+      <c r="C6">
+        <v>12151.7</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>32452</v>
+      </c>
+      <c r="G6">
+        <v>3245.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>245595</v>
+      </c>
+      <c r="C7">
+        <v>24559.5</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>38829</v>
+      </c>
+      <c r="G7">
+        <v>3882.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>32986</v>
+      </c>
+      <c r="C8">
+        <v>3298.6</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>78230</v>
+      </c>
+      <c r="G8">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>500</v>
+      </c>
+      <c r="B9">
+        <v>15341</v>
+      </c>
+      <c r="C9">
+        <v>1534.1</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>175343</v>
+      </c>
+      <c r="G9">
+        <v>17534.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10">
+        <v>11349</v>
+      </c>
+      <c r="C10">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10">
+        <v>382116</v>
+      </c>
+      <c r="G10">
+        <v>38211.599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CS 2420 - Summer 2014/src/assignment7/graphData.xlsx
+++ b/CS 2420 - Summer 2014/src/assignment7/graphData.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Java\school-java\CS 2420 - Summer 2014\src\assignment7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casey\Desktop\analysis Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4116"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>size</t>
   </si>
@@ -45,13 +44,19 @@
     <t>BFS (Edges = 2*Vertices)</t>
   </si>
   <si>
+    <t>DFS (Edges = 2*Vertices)</t>
+  </si>
+  <si>
+    <t>DFS (Edges = 3*Vertices)</t>
+  </si>
+  <si>
     <t>dijkstras</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>topo</t>
   </si>
   <si>
-    <t>topo</t>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -373,19 +378,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -399,7 +404,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -425,7 +430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -455,7 +460,7 @@
         <v>1866148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -485,7 +490,7 @@
         <v>5011634.2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -515,7 +520,7 @@
         <v>9648295.1999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -545,7 +550,7 @@
         <v>14015213</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4000</v>
       </c>
@@ -575,7 +580,7 @@
         <v>18920229.600000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -605,7 +610,7 @@
         <v>23619873.199999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6000</v>
       </c>
@@ -635,7 +640,7 @@
         <v>28940717.600000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7000</v>
       </c>
@@ -665,7 +670,7 @@
         <v>34076702</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8000</v>
       </c>
@@ -695,7 +700,7 @@
         <v>38965289.600000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9000</v>
       </c>
@@ -725,7 +730,7 @@
         <v>44463734</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10000</v>
       </c>
@@ -755,223 +760,578 @@
         <v>49814034.799999997</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <f>2*A17</f>
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <f>A17+B17</f>
+        <v>300</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1862206.2</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <f>3*F17</f>
+        <v>300</v>
+      </c>
+      <c r="H17">
+        <f>F17+G17</f>
+        <v>400</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2074421.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B27" si="4">2*A18</f>
+        <v>2000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C27" si="5">A18+B18</f>
+        <v>3000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5131088</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G27" si="6">3*F18</f>
+        <v>3000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H27" si="7">F18+G18</f>
+        <v>4000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7018819.7999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>9969660.1999999993</v>
+      </c>
+      <c r="F19">
+        <v>2000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>6000</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>13472903.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3000</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>13932894.4</v>
+      </c>
+      <c r="F20">
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>9000</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>12000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>20649315.199999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4000</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>8000</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>12000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>18782102.199999999</v>
+      </c>
+      <c r="F21">
+        <v>4000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>12000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>27671648.399999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5000</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>24061815</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>15000</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>35766362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6000</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>18000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>29043550</v>
+      </c>
+      <c r="F23">
+        <v>6000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>18000</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>24000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>42322869.200000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7000</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>21000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>34664773.600000001</v>
+      </c>
+      <c r="F24">
+        <v>7000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>21000</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>28000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50963401.200000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8000</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>16000</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>24000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>38849251.399999999</v>
+      </c>
+      <c r="F25">
+        <v>8000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>24000</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>32000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>58812327.399999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9000</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>27000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44986984.399999999</v>
+      </c>
+      <c r="F26">
+        <v>9000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>27000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>36000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>65872192.799999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10000</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>20000</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="5"/>
+        <v>30000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>48489633.399999999</v>
+      </c>
+      <c r="F27">
+        <v>10000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>30000</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>40000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>75087911.200000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>671501</v>
+      </c>
+      <c r="C31">
+        <v>67150.100000000006</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>45155</v>
+      </c>
+      <c r="G31">
+        <v>4515.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>84587</v>
+      </c>
+      <c r="C32">
+        <v>8458.7000000000007</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>47398</v>
+      </c>
+      <c r="G32">
+        <v>4739.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>43873</v>
+      </c>
+      <c r="C33">
+        <v>4387.3</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>14335</v>
+      </c>
+      <c r="G33">
+        <v>1433.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>121517</v>
+      </c>
+      <c r="C34">
+        <v>12151.7</v>
+      </c>
+      <c r="E34">
+        <v>50</v>
+      </c>
+      <c r="F34">
+        <v>32452</v>
+      </c>
+      <c r="G34">
+        <v>3245.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>245595</v>
+      </c>
+      <c r="C35">
+        <v>24559.5</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>38829</v>
+      </c>
+      <c r="G35">
+        <v>3882.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>200</v>
+      </c>
+      <c r="B36">
+        <v>32986</v>
+      </c>
+      <c r="C36">
+        <v>3298.6</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>78230</v>
+      </c>
+      <c r="G36">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>500</v>
+      </c>
+      <c r="B37">
+        <v>15341</v>
+      </c>
+      <c r="C37">
+        <v>1534.1</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>175343</v>
+      </c>
+      <c r="G37">
+        <v>17534.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1000</v>
+      </c>
+      <c r="B38">
+        <v>11349</v>
+      </c>
+      <c r="C38">
+        <v>1134.9000000000001</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>382116</v>
+      </c>
+      <c r="G38">
+        <v>38211.599999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>671501</v>
-      </c>
-      <c r="C3">
-        <v>67150.100000000006</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>45155</v>
-      </c>
-      <c r="G3">
-        <v>4515.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>84587</v>
-      </c>
-      <c r="C4">
-        <v>8458.7000000000007</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>47398</v>
-      </c>
-      <c r="G4">
-        <v>4739.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>43873</v>
-      </c>
-      <c r="C5">
-        <v>4387.3</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>14335</v>
-      </c>
-      <c r="G5">
-        <v>1433.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>121517</v>
-      </c>
-      <c r="C6">
-        <v>12151.7</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>32452</v>
-      </c>
-      <c r="G6">
-        <v>3245.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>245595</v>
-      </c>
-      <c r="C7">
-        <v>24559.5</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>38829</v>
-      </c>
-      <c r="G7">
-        <v>3882.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>200</v>
-      </c>
-      <c r="B8">
-        <v>32986</v>
-      </c>
-      <c r="C8">
-        <v>3298.6</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>78230</v>
-      </c>
-      <c r="G8">
-        <v>7823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>500</v>
-      </c>
-      <c r="B9">
-        <v>15341</v>
-      </c>
-      <c r="C9">
-        <v>1534.1</v>
-      </c>
-      <c r="E9">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>175343</v>
-      </c>
-      <c r="G9">
-        <v>17534.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1000</v>
-      </c>
-      <c r="B10">
-        <v>11349</v>
-      </c>
-      <c r="C10">
-        <v>1134.9000000000001</v>
-      </c>
-      <c r="E10">
-        <v>1000</v>
-      </c>
-      <c r="F10">
-        <v>382116</v>
-      </c>
-      <c r="G10">
-        <v>38211.599999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>